--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SkillCast.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SkillCast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450FE6CA-1BDB-4A61-A825-EDA1E27469BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A29CA46-2855-489A-9377-F100B84E9DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,22 +599,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="33.77734375" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="9" width="33.75" customWidth="1"/>
+    <col min="10" max="10" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
@@ -839,7 +839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
